--- a/deuChatbot/research_result/results/sem_score/sem_version_1(2000_500).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(2000_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,61 +6088,3386 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 시각디자인, 산업디자인, 공예디자인 중 택 1을 선택합니다.
+2. **실기종목**: 기초디자인 및 사고의 전환입니다.
+3. **종목별 배점(비율)**: 700점 중 70%를 차지하며, 정확한 점수는 표에서 확인하실 수 있습니다.
+4. **준비물**: 준비물에 대한 세부사항은 제공되지 않았습니다. 일반적으로 필요한 물품을 미리 준비하는 것이 좋습니다.
+5. **실기주제**: 주제에 대한 정보는 제공되지 않았지만, 디자인과 관련된 주제가 될 것으로 예상됩니다.
+6. **화지크기 및 시험기간**: 이 부분도 구체적으로 제공되지 않았으나, 일반적인 대학 입시에서는 1일 동안의 시간이 주어질 가능성이 높습니다.
+디자인조형학과는 창의성과 실용성을 중점으로 하는 학과로, 실제 디자인 작업을 수행할 수 있는 기술과 사고방식을 키우는 것이 목표입니다. 따라서 준비 과정에서는 자신의 창의력을 발휘하고, 다양한 아이디어를 표현하는 연습이 필요합니다.
+더 자세한 정보나 추가 준비사항이 필요하시다면, 해당 학과의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7907489976286888</v>
+        <v>0.8884949684143066</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목과 관련된 정보는 다음과 같습니다:
+- **실기종목**: 시각디자인, 산업디자인, 공예디자인 중에서 선택해야 합니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+**세부 실기주제와 화지크기, 시간은 다음과 같습니다:**
+1. **기초디자인 / 사고의 전환**
+   - **실기주제**: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+     예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **실기주제**: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+     예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이 정보는 디자인조형학과의 실기고사에서 시각디자인, 산업디자인, 공예디자인 중 선택한 종목에 따라 다르게 적용될 수 있으므로, 정확한 정보를 얻으려면 해당 학과의 공식 웹사이트나 입학처와 직접 확인하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7861368489265442</v>
+        <v>0.898975670337677</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+- 배드민턴(남):
+  - 한국중·고연맹회장기전국학생선수권대회
+  - 대한배드민턴협회장기전국종별배드민턴선수권대회
+  - 전국학교대항배드민턴선수권대회
+  - 전국종별배드민턴선수권대회
+  - 전국연맹종별배드민턴선수권대회
+  - 전국체육대회
+  - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+  - 광역시·도 협회장기 종별대회
+- 축구(남):
+  - 춘계한국고등학교축구연맹전
+  - 추계한국고등학교축구연맹전
+  - 대한축구협회장배전국고등학교축구대회
+  - 문화체육관광부장관기전국고등학교축구대회
+  - 문화체육관광부장관배전국고등학교축구대회
+  - 백운기전국고등학교축구대회
+  - 전국고등축구리그(권역별고교축구리그)
+  - 전국고등축구리그왕중왕전
+  - 무학기전국고등학교축구대회
+  - 청룡기전국고등학교축구대회
+  - 백록기전국고등학교축구대회
+  - 금강대기전국고등학교축구대회
+  - 대통령금배전국고등학교축구대회
+  - 금석배전국고등학생축구대회
+  - 부산MBC전국고등학생축구대회
+  - K리그 U18 챔피언십
+  - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9904890656471252</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기 시험에서 사용되는 주제들은 당일 추첨을 통해 결정되며, 예시로 제공된 주제들입니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 외의 다른 주제가 추첨될 수 있으며, 당일에 제공되는 주제들만을 사용하여 연결된 주제를 그려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9629551768302917</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서는 출결 점수가 반영됩니다. 
+출결상황에 따른 반영점수는 다음과 같습니다:
+- 결석일수 0~2일 : 120점 
+- 결석일수 3~6일 : 90점
+- 결석일수 7~12일 : 60점
+- 결석일수 13~20일 : 30점
+- 결석일수 21일 이상 : 0점
+이 점수는 학생부 교과성적 외에 출결 상태도 종합적으로 평가하는 데 참고됩니다.
+참고로, 미인정, 사고, 무단의 지각/조퇴/결과 3회는 결석 1회로 간주한다고 하니 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6414742469787598</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /라는 정보가 표에 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8777698874473572</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7993823289871216</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료·보건·생활대학 / 간호학과 - 교직 - 간호교육인증 / 22 / 
+이 정보는 "나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.8561320304870605</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 1등급 : 139점
+- 2등급 : 131점 
+- 3등급 : 123점
+- 4등급 : 115점
+- 5등급 : 107점
+- 6등급 : 99점
+- 7등급 : 91점
+- 8등급 : 83점
+- 9등급 : 75점
+이 점수들은 각 등급별로 대략적인 평균 점수를 나타내며, 실제 수능 성적 발표 시에는 정확한 점수가 공개됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.9688097238540649</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 일반적으로 나군 학생부교과 농어촌학생전형의 지원 자격에 해당하지 않습니다. 
+[표 추가내용] 부분에서 다음과 같이 명시되어 있습니다:
+"지원자의 거주지와 부모의 거주지는 동일하지 않아도 되며, 재학기간과 거주기간은 연속된 연수만을 인정합니다.(학업 중단 후 재입학할 경우에도 거주기간은 연속되어야 함)
+최초 입학일부터 졸업일까지 농어촌지역 또는 도서·벽지에 거주, 재학하지 않으면 불합격 또는 합격 이후라도 입학이 취소될 수 있습니다.(지원자격에 대한 추가 검증이 필요한 경우, 관련 서류를 제출받아 확인하며 전화 및 현장실사를 할 수 있음)"
+또한 [표 제목 : 나군 학생부교과(농어촌학생전형) - 정원외 지원자격] 부분에서도 다음과 같이 명시되어 있습니다:
+"지원자격 : 국내 고교 졸업(예정)자로서 6년과정, 12년과정 2개 유형중 1개의 유형에 해당하는 자
+... 
+농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 다른 전형을 통해 지원하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9370610117912292</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 257~260cm이며, 이 기록에 대한 배점은 128.0점입니다.
+참조할 수 있는 표는 다음과 같습니다:
+```
+레저스포츠학과 기록별 배점표
+[표 속성]
+``` 등급 / 제자리 멀리뛰기(cm) { 남 / 여 / 배점 } ```
+[표 내용]
+```
+...
+4 / { 257~260 /  253~256 /  128.0 / } /
+...
+```
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 257~260cm이고, 배점은 128.0점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.674519419670105</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.9242417812347412</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.
+이 정보는 "전형별 모집단위별 모집인원" 표에서 확인할 수 있습니다. 해당 표에 따르면, 물리치료학과는 &lt;가&gt;군 모집단위에 속하며 정원 내 모집인원으로 4명을 모집하고 있습니다.
+참조용으로 전체 표 내용은 다음과 같습니다:
+[표 제목 : 전형별 모집단위별 모집인원]
+```
+&lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형) / 전 모집단위(디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외) / 35,000원 /
+&lt;가&gt;군, &lt;나&gt;군 실기/실적(일반학생전형) / 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 / 68,000원 /
+단과대학 / 모집 단위 / 정원 내 모집인원 / &lt;가군&gt; { 일반학생 } / &lt;나&gt;군 { 일반학생 / 경기 실적 우수자 / 농어촌 학생 / 평생 학습자 / 성인 학습자(정원내) / 성인 학습자(정원외) / 재직자 / 조기 취업형 계약 학과 } / &lt;다&gt;군 { 일반학생 }
+인문사회과학대학 / 물리치료학과 / 4
+```
+따라서, 물리치료학과는 가군에서 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9038037657737732</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 일정을 참고하여 준비하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.787943422794342</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 주어진 데이터에서는 응용화학과에 대한 특정 정보가 포함되어 있지 않습니다.
+다만, 일반적으로 수능 최저기준은 대학이 각 학과별로 설정하며, 해당 정보는 입학전형요강이나 공식 홈페이지를 통해 공지됩니다. 제공된 표 중에서 수능 최저기준을 확인할 수 있는 "전형요소 반영비율" 표에서도 응용화학과의 관련 정보가 없습니다.
+따라서, 정확한 수능 최저기준을 알고자 한다면 동의대학교 공식 홈페이지나 입학처에 직접 문의하시는 것이 가장 확실합니다. 또한, 입학전형요강이나 공지사항 페이지를 확인하시也是非常推荐的做法，以获取最新的招生要求和标准。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5632227063179016</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과와 전공은 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 총 4개의 신설 학과/전공을 추가하였습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9338038563728333</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 (학생부): 60%
+- 면접: 40%
+이 정보는 "나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 영역별 세부 평가 기준 및 내용" 표에서 확인할 수 있으며, 비슷한 구조를 가진 다른 전형의 경우에도 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9457091689109802</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학과 ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+이 정보는 "수능 반영영역 및 가산점" 표에서 확인할 수 있습니다:
+- 공과대학, ICT융합공과대학 모집단위: 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+따라서, 수능 가산점을 받기 위해서는 해당 학과와 모집단위에서 수학(미적분 또는 기하)을 응시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9496420621871948</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 전 모집단위에 대해 다음과 같이 반영됩니다:
+- 국어(화법과작문 or 언어와매체) : 25%
+- 수학(확률과통계 or 미적분 or 기하) : 25%
+- 영어 : 25%
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목) : 각 25%
+특히, 한의예과의 경우 수학(미적분/기하) 응시자와 수학(확률과통계) 응시자의 반영 비율이 다르게 적용됩니다.
+또한, 탐구 영역은 지정과목이 없으며, 영어 영역은 등급에 따른 점수를 반영합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8536534309387207</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 예정되어 있습니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)에 시행됩니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)에 시행됩니다.
+이 정보는 현재 제공된 데이터를 기반으로 한 것이며, 최종 일정은 학교 입학관리팀에서 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.8161641359329224</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 위주 전형인 것으로 나타났습니다. 
+따라서, 일반학생전형으로 모집되는 나군 수능(일반학생전형)에서는 이 4개의 모집단위는 제외된 것으로 보입니다.
+이 점을 고려하여 정리하면:
+- 실기/실적 위주 전형인 모집단위: 한의예과, 디자인조형학과, 체육학과, 경기지도학과
+- 수능 위주 전형인 나군 수능(일반학생전형)에서는 이 4개 모집단위 제외
+따라서, 나군 수능(일반학생전형)으로 모집되는 일반 학생 모집단위는 한의예과를 제외한 나머지 모집단위가 해당됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9430188536643982</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서 수능 최저기준은 적용되지 않습니다.
+참조할 수 있는 정보는 다음과 같습니다:
+- [전형요소 반영비율] 표에서 다군 수능(일반학생전형)의 수능최저기준 항목이 "수능최저기준 없음"으로 표시되어 있습니다.
+- 이는 모든 다군 전형에서 수능 최저 점수가 설정되지 않았음을 의미합니다.
+따라서 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.869551420211792</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과 (모집중지)
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 학부 통합 또는 명칭 변경을 통해 변화하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+추가 유의사항:
+- 원서접수 사이트 접속이 마감일 정각에 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임이므로 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.8502694368362427</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **정시모집군 변경**
+   - 영어영문학과 (가) → 영어영문학과 (다)
+   - 호텔‧컨벤션경영학과 (나) → 호텔‧컨벤션경영학과 (가)
+   - 로봇자동화공학과 (나) → 로봇자동화공학과 (가)
+   - 토목공학과 (가) → 토목공학과 (나)
+   - 응용화학과 (가) → 응용화학과 (다)
+   - 바이오의약공학과 (다) → 바이오의약공학과 (나)
+   - 제품디자인공학과 (나) → 제품디자인공학과 (가)
+   - 전기공학과 (나) → 전기공학과 (가)
+   - 전자공학과 (나) → 전자공학과 (가)
+2. **전형명 및 지원자격 변경**
+   - 학생부종합(성인학습자전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 학생부종합(성인학습자(정원내)전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+3. **학생부 교과성적 반영방법 변경**
+   - 일부 모집단위에서 진로선택과목의 성적 반영 기준이 변경되었습니다.
+4. **전형요소 반영비율 변경**
+   - 실기/실적(경기실적우수자전형): 학생부교과 18% + 출결 12% + 서류(실적) 70%
+   - 학생부종합(조기취업형계약학과전형): 서류(학생부) 60% + 면접 40%
+이러한 변경사항들은 지원자들이 전형 요소를 잘 이해하고 준비하는 데 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.8167684078216553</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 레저스포츠학과와 태권도학과는 실기가 70%를 차지합니다.
+이 정보는 다음과 같은 데이터에서 얻어졌습니다:
+```markdown
+[표 속성]
+``` 전형명 / 모집단위 / 전형요소 반영비율{ 수능 / 실기 } ```
+[표 내용]
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% /  70% / } /
+```
+```
+따라서, 가군 실기/실적 전형에서 레저스포츠학과와 태권도학과의 경우 실기가 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.7444262504577637</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 라이프융합학부는 3가지 세부 전공으로 구성되어 있으며, 이들 전공들은 창업 및 투자, 뷰티 산업, 그리고 일상 생활 문화와 관련된 분야를 다룹니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9176716208457947</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9527746438980103</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과 
+3. 디자인조형학과
+4. 체육학과
+이러한 학과들은 실기/실적 위주 전형으로 지원할 수 있습니다.
+추가로, 경기지도학과는 실기/실적(경기실적우수자전형)으로 별도로 모집하고 있습니다.
+따라서, 실기/실적 위주 전형을 원하신다면 위의 학과 중에서 선택하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9593007564544678</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业旨在培养与生活融合相关的创业、美容和文化方面的专门人才。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.7440100312232971</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신 학생은 일반학생전형으로 지원할 수 없습니다.
+이러한 제한 사항은 2024학년도 주요 변경사항 표에서 확인할 수 있습니다. 특수목적고등학교 출신 학생들은 특정 전형을 통해 지원해야 합니다. 예를 들어, 예술고나 체육고 출신 학생들은 각각 예체능전형이나 경기실적우수자전형 등을 통해 지원할 수 있습니다.
+따라서, 특수목적고등학교 학생이 동의대학교 일반학생전형으로 지원하려면, 해당 전형에 대한 자세한 정보를 확인하시거나, 입학처 웹사이트나 연락처를 통해 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.6126914024353027</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보는 제공된 데이터에서 명확히 확인할 수 없습니다. 하지만, 다음과 같은 점들을 통해 추론할 수 있습니다:
+1. **모집인원 표**를 보면, 각 학과별로 정원 내와 정원 외의 모집인원이 나뉘어져 있으며, 이 중 가장 큰 숫자가 가장 많이 모집하는 학과일 가능성이 높습니다.
+2. **나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원** 표를 보면, 각 학과별로 정원 내와 정원 외의 모집인원이 나뉘어져 있습니다.
+3. **학과 분리(학부→학과), 학부 통합, 학과(전공) 명칭 변경** 표에서 일부 학과들의 이름 변경 사항을 확인할 수 있지만, 이는 실제 모집 인원에 대한 정보를 제공하지 않습니다.
+4. **전형별 모집단위별 모집인원** 표에서는 각 학과의 정원 내와 정원 외 모집인원이 나열되어 있습니다.
+따라서, 가장 많이 모집하는 학과를 정확히 알기 위해서는 위에서 언급한 표들을 종합적으로 분석해야 합니다. 예를 들어, **전형별 모집단위별 모집인원** 표에서 각 학과의 정원 내와 정원 외 모집인원을 더하여 가장 큰 숫자를 가진 학과가 가장 많이 모집하는 것으로 추정할 수 있습니다.
+만약 이 정보가 필요하다면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하시거나 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9231089353561401</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不属于目标受众，以下回答针对韩语母语者。 
+특수목적고등학교 출신자는 동의대학교 학생부교과 농어촌학생전형에 지원할 수 없습니다. 지원 자격 조건 중 하나로 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 지원이 제한됩니다.
+따라서, 특수목적고등학교 학생이라면 다른 전형을 찾아보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.8475373983383179</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 찾을 수 없습니다. 
+다만, 소프트웨어공학부는 다군 수능(일반학생전형) 모집단위 중 하나로 알려져 있으며, 전형요소 반영비율은 100%입니다 (수능 성적만 반영).
+수능 최종등록자의 경우 다음과 같은 정보가 있습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 / 표준 편차
+- **영어 등급**: 평균 / 표준 편차
+- **수능 4개 영역 등급**: 평균 / 표준 편차
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 / 표준 편차
+이러한 정보를 통해 소프트웨어공학부의 합격자들의 성적 분포를 파악할 수 있지만, 특정 모집단위(소프트웨어공학부)에 대한 평균 성적은 직접적으로 제공되지 않았습니다.
+더 구체적인 정보를 얻으시려면 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7833907604217529</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 다군 수능(일반학생전형) 모집단위 중 소프트웨어공학부는 다음과 같은 정보가 주어졌습니다:
+- 단과대학: ICT융합공과대학
+- 계열: 공학
+- 모집단위: 소프트웨어공학부 (컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)
+- 모집인원: 45명
+하지만 수능 최초합격자에 대한 평균 성적 정보는 제공되지 않았습니다. 
+수능 최초합격자의 평균 성적을 확인하려면, "수능(일반학생전형) 최초합격자" 표를 참조해야 합니다. 해당 표에서 소프트웨어공학부에 대한 정보를 찾아보시기 바랍니다.
+만약 표가 제공되지 않았다면, 대학 홈페이지나 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8486878871917725</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+1. 최초합격자부터 2차 충원합격자 발표는 홈페이지를 통해 실시됩니다.
+2. 모든 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 합격 여부를 확인해야 합니다.
+具体的来说：
+- 最初的合格者和补充合格者的公布将通过学校网站进行。
+- 所有申请人都必须在招生日程表上指定的合格者公布日期内确认自己的录取情况。
+请注意，确切的公布日期需要参考学校的官方公告。建议密切关注学校官网的通知。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.6892797946929932</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사는 일반적으로 정해진 날짜와 시간에 이루어집니다. 각 전형별로 면접 일정이 다르므로, 해당 전형의 공지사항이나 안내서를 확인하시기 바랍니다.
+특히, 동의대학교의 경우 다음과 같은 정보가 있습니다:
+- **면접일시**: 일반적으로 1월 중순부터 2월 초까지 이루어집니다.
+- **장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+具体的来说，你可以参考以下信息：
+- **面试时间**：通常在1月中下旬到2月初进行。
+- **地点**：（邮编：47340）韩国釜山市东区严光路176号，동의대학교 입학관리팀
+为了确保准确无误，请访问学校官网或联系招生办公室以获取最新的面试安排和具体日期。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7859430313110352</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医系（한의예과）的具体最低入学资格要求。但是，根据其他表格中的信息可以推断出一些关于韩医系的入学条件：
+1. 高中毕业或同等学历持有者（法定义务）
+2. 必须参加韩国语能力考试（韩语科目是必考项）
+3. 由于韩医系可能有特定的专业要求，可能会有一些额外的要求，比如对自然科学的兴趣和理解等。
+4. 可能还需要满足一定的身体条件或健康状况要求。
+要获取最准确的最低入学资格信息，建议直接访问东国大学（동의대학교）官方网站或者联系学校的招生办公室。他们可以提供最新的、详细的规定和要求。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.2785795927047729</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024년도 정시모집에서는 일반적으로 특정 학과에 대한 수능 최저학력 기준을 설정하지 않았습니다. 하지만 일부 학과는 특별한 경우를 제외하고는 수능 최저학력기준을 적용할 수 있습니다.
+따라서 지원자들은 각 모집단위의 수능 최저학력기준을 확인하여 지원해야 합니다. 만약 특정 학과에 대한 정확한 수능 최저학력기준이 궁금하다면, 해당 대학 입학처 웹사이트나 전형요강을 참조하시거나 직접 문의하시는 것이 좋습니다.
+대부분의 경우, 수능 최저학력기준은 다음과 같은 항목들을 포함할 수 있습니다:
+- 국어
+- 수학
+- 영어
+하지만 정확한 기준과 적용 여부는 해당 대학에서 공고한 내용을 따르셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6055439114570618</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자 발표가 이루어집니다. 특히, 3차 이후의 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이 기간 동안에는 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.8474719524383545</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 추가합격자 발표가 이루어집니다. 특히, 3차 이후의 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에도 주의해야 합니다. 이 기간 동안에는 반드시 전화를 받는 것이 중요합니다.
+추가적인 유의사항은 다음과 같습니다:
+- 3차 이후 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+- 이 기간 동안 합격 여부를 확인하지 않으면 등록 포기자로 간주될 수 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.8970123529434204</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년도 동일 모집단위에서 정시 모집인원 미달 시, 결원이 발생하면 추가모집을 실시할 수 있습니다. 특히, 정시 모집의 경우, 전형별로 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.
+따라서, 지원자가 관심 있는 모집단위에서 정시 모집인원이 충족되지 못한 경우, 추가모집의 가능성이 있습니다. 하지만 확실한 정보는 해당 대학 입학관리 홈페이지나 입학처에 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9629989862442017</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 학습자를 대상으로 하는 입학전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 4대 보험 중 1개 이상 가입 사업체 재직자 (창업·자영업자 포함)
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+2. 모집 단과대학 및 계열:
+   - 미래융합대학 인문사회 학부
+     - 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+     - 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+3. 전형 요소 및 비율:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+4. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자 제외)
+   - 검정고시 합격증명서 및 성적증명서
+   - 외국고교 졸업(예정)자의 경우 공증받은 졸업증명서와 성적증명서
+5. 서류 제출 기간 및 장소:
+   - 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지
+   - (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+6. 기타 유의사항:
+   - 학교생활기록부 대체 서류는 선택적으로 제출 가능
+   - 외국고교 졸업예정자는 졸업 후 추가로 졸업증명서를 제출해야 함
+이 전형은 평생학습을 통해 얻은 경험과 지식을 인정하며, 다양한 학부와 계열에서 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.7561571002006531</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+2. 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)가어야 합니다.
+이러한 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.6408416628837585</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사의 장소는 다음과 같습니다:
+(우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+실기고사는 이 주소에 있는 동의대학교에서 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7378256320953369</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. **제자리 멀리뛰기**
+   - 배점: 240점 (24%)
+2. **메디신볼 던지기**
+   - 배점: 243점 (23%)
+3. **Z-런**
+   - 배점: 230점 (23%)
+**주의사항:**
+- 각 실기종목 시험 당일에는 운동복 및 운동화를 착용해야 합니다.
+- 스파이크, 축구화 등 특수화는 불가하며, 신발바닥에 이물질 가칠 금지입니다.
+- 메디신볼 규격은 남자 3kg, 여자 2kg입니다.
+- 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+- 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+이러한 정보를 바탕으로 체육학과의 실기고사 준비를 하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4853208661079407</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 수시 충원합격자 발표 시 전화 주는 것은 아닙니다. 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+만약 합격 통보를 받았다면, 즉시 우리대학에 등록 의사를 전달해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7944071292877197</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터에서 찾을 수 없습니다. 주어진 데이터는 2024학년도와 관련된 내용들로 구성되어 있으며, 이전 년도의 모집 결과나 세부적인 합격자 명단 등은 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과 수시모집 결과를 알고 싶다면, 해당 대학의 입학처 웹사이트 또는 관련 공지사항을 확인하시거나, 직접 입학처에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.7993378639221191</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 정보를 바탕으로, 정시 모집에서 수능을 응시하지 않고도 일부 전형을 통해 지원이 가능합니다. 주로 다음과 같은 전형들이 해당됩니다:
+1. **학생부종합전형**:
+   - **성인학습자(정원내)전형**
+   - **성인학습자(정원외)전형**
+   - **재직자전형**
+   - **조기취업형계약학과전형**
+2. **실기/실적 전형**:
+   - **경기실적우수자전형**: 이 경우 실기나 실적을 평가하는 요소들이 중요합니다.
+3. **학생부교과전형**:
+   - **농어촌학생전형**
+   - **특성화고동일계전형**
+이러한 전형들은 주로 학생부 성적, 면접, 실기 등 다양한 평가 요소를 통해 지원자를 선발합니다. 수능을 응시하지 않더라도 학교생활기록부, 진로활동, 사회참여 활동 등을 잘 준비한다면 좋은 결과를 얻을 수 있습니다.
+具体的来说，对于2024年的情况，在正常高考之外，仍然有一些招生类型允许不参加高考就申请：
+1. **综合学业评价入学**：
+   - 成人学习者（限定名额）型
+   - 成人学习者（非限定名额）型
+   - 再就业者型
+   - 早期就业合同专业型
+2. **技能/实际成绩入学**：
+   - 经济成就优秀者型：主要评估实践能力和实际表现。
+3. **学业评价入学**：
+   - 农村学生型
+   - 特色高中同系型
+这些类型的招生主要通过学生成绩单、面试、实践活动等多方面进行评估，而不完全依赖于高考成绩。因此，即使不参加高考，只要在其他评估项目上表现出色，仍然有机会被录取。</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.7157697081565857</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024년의 경우, 일반적으로 고등학교 졸업 후 10년이 경과하면 정시 모집에 지원하는 것은 어렵습니다. 대학마다 각기 다른 지원 자격 조건을 가지고 있으나, 대부분의 대학은 최소한 고등학교 졸업 후 3년 이내의 지원자를 대상으로 합니다.
+특히 동의대학교의 경우, 나군 학생부종합(성인학습자) 전형에 대해 다음과 같은 조건을 제시하고 있습니다:
+- 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+- 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+이 조건을 보면, 고등학교를 졸업한 지 10년이 지난 경우 일반적으로 지원 자격이 부족합니다. 하지만 특정 전형이나 특별한 상황에서는 예외가 있을 수 있으므로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.
+추가로 확인해야 할 사항:
+1. 다른 대학에서 지원해볼 가치가 있습니다.
+2. 특별한 경력이나 자격증이 있다면 이를 활용하여 지원할 수 있는 전형을 찾아보세요.
+3. 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 조건을 확인하세요.
+결론적으로, 일반적으로는 불가능하지만, 특별한 상황이나 전형이 있다면 가능할 수도 있으므로 추가적인 정보 수집이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.6472288966178894</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. 원서접수:
+   - 마감일: 2024년 1월 6일(토) 18시
+2. 전형료 결제 및 수험번호 부여:
+   - 전형료 결제가 완료되면 수험번호가 부여됩니다.
+3. 합격자 발표:
+   - 최초합격자부터 2차 충원합격자 발표까지는 홈페이지를 통해 실시
+   - 모든 지원자는 합격자 발표일에 반드시 조회해야 합니다
+4. 등록금 납부:
+   - 합격자(최초합격자 및 충원합격자)는 지정된 등록기간 내에 등록금을 납부해야 합니다
+   - 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기한 것으로 간주됩니다
+5. 기타 주요 일정:
+   - 2024년 1월 2일(화) 이후 수시모집 등록자의 결원은 정시 일반학생전형 모집인원으로 이월하여 합격자를 선발합니다
+   - 3차 충원합격자 발표 과정에서 전화연락 두절로 인해 통보가 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다
+6. 등록(입학) 포기 및 등록금 환불:
+   - 2024년 2월 15일(목) ~ 2024년 2월 20일(화)까지 등록포기 신청 가능
+   - 등록포기 후에는 번복 불가
+이 일정은 일반적인 정시 모집 일정을 기반으로 설명한 것입니다. 자세한 내용은 동의대학교 입학관리 홈페이지를 확인하시거나 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.8930635452270508</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **원서접수**:
+   - 접수 기간: 2024년 1월 3일(수) ~ 1월 12일(금) 17:00까지
+   - 접수 사이트 접속 차단 예정 시간: 2024년 1월 6일(토) 18시 정각
+2. **전형료 결제**:
+   - 전형료 결제는 원서접수 시 함께 진행해야 합니다.
+   - 결제가 완료된 후 수험번호가 부여됩니다.
+3. **면접 및 서류평가**:
+   - 면접은 개별면접 방식으로 진행되며, 평균 10분 이내로 이루어집니다.
+   - 면접은 블라인드 방식으로 진행되며, 개인 신상 정보 노출이 금지됩니다.
+4. **합격자 발표**:
+   - 최초 합격자 발표: 홈페이지를 통해 실시
+   - 충원 합격자 발표: 2024년 2월 15일(목) ~ 2024년 2월 20일(화)
+5. **등록금 납부**:
+   - 합격자들은 지정된 등록기간 내에 등록금을 납부해야 합니다.
+   - 지정 기일 내에 등록금을 납부하지 않으면 입학이 포기됩니다.
+6. **환불 신청**:
+   - 환불 신청 기간: 2024년 2월 14일(수) ~ 2024년 2월 20일(화) 12:00까지
+   - 환불 절차는 입학안내 홈페이지를 통해 온라인으로 진행됩니다.
+7. **등록 포기 및 등록금 환불**:
+   - 등록자가 충원기간 중 타 대학에 합격 통보를 받은 경우, 즉시 우리대학에 등록 포기 의사를 전달해야 합니다.
+   - 등록포기 및 등록금 환불 신청 완료 후에는 번복이 불가능합니다.
+8. **결원 처리**:
+   - 모집인원 미달 시 결원 발생 시 예비후보 순위에 따라 충원 합격자를 선발합니다.
+   - 2024년 1월 2일 이후 수시모집 등록자의 등록 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다.
+이 일정을 준수하여 지원하시면 됩니다. 자세한 내용은 동의대학교 입학관리 홈페이지를 참고하시거나 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.875956654548645</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **실기/실적 (일반학생전형)** - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과를 제외한 모든 모집단위에서 수능 미응시자도 지원이 가능합니다. 이 전형의 전형료는 68,000원입니다.
+2. **실기/실적 (경기실적우수자전형)** - 모든 모집단위에서 수능 미응시자도 지원이 가능하며, 전형료는 40,000원입니다.
+3. **학생부교과(농어촌학생전형)** - 모든 모집단위에서 수능 미응시자도 지원이 가능하며, 전형료는 35,000원입니다.
+4. **학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)** - 이 전형들은 모든 모집단위에서 수능 미응시자도 지원이 가능하며, 전형료는 40,000원입니다.
+따라서, 위의 전형들에서는 수능을 응시하지 않은 지원자들도 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6076518297195435</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 모집일정을 보면, 충원 합격자는 다음과 같이 발표됩니다:
+- 1차 충원 합격자 발표: 2024. 02. 15.(목) 09:00
+- 2차 충원 합격자 발표: 2024. 02. 15.(목) 09:00
+따라서 전년도에 전자공학과의 충원 합격은 최대 2차까지 이루어졌습니다.
+만약 이 정보가 정확하지 않거나, 특정 연도의 데이터를 원하신다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.805797278881073</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 연락처 정보를 찾을 수 없습니다. 하지만, 지원자 유의사항이나 기타 문의 사항은 (주)유웨이어플라이에 문의하실 수 있습니다. 그 번호는 1588-8988입니다.
+만약 입학처의 직접적인 전화번호가 필요하다면, 공식 홈페이지인 https://ipsi.deu.ac.kr/main.do를 방문하여 연락처 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.749500572681427</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+즉, 만약 3차 이후 충원합격자 발표 시기에 전화 통화가 두절되어 통보를 받지 못했다면, 이는 등록 포기로 간주되므로 지원자는 해당 학교에 다시 연락하여 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9573754668235779</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정으로 나뉘어진 농어촌학생전형의 각각 제출서류는 다음과 같습니다:
+### 6년 과정
+- **지원자 본인의 가족관계증명서**: 1부
+- **지원자 본인, 부, 모의 주민등록초본**: 각 1부 (총 3부)
+- **중학교 학교생활기록부**: 1부
+- **고등학교 학교생활기록부**: 1부
+### 12년 과정
+- **지원자 본인의 주민등록초본**: 1부
+- **초등학교 학교생활기록부**: 1부
+- **중학교 학교생활기록부**: 1부
+- **고등학교 학교생활기록부**: 1부
+**추가 제출서류 (최종 등록자에게만)**:
+- **고교 졸업증명서**: 1부
+- **지원자 본인 초본**: 1부 (6년 과정의 경우 부, 모 초본도 필요)
+**주의사항**:
+- 주민등록초본은 고교졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다. 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+**제출 기간 및 장소**:
+- **기간**: 2024년 1월 3일(수) ~ 1월 12일(금) 17:00까지 도착분에 한함
+- **장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+이러한 서류를 정확하게 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.8919417858123779</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(온라인 제공 비대상교 및 미동의자)
+추가로 주의사항:
+- 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출이 가능하다.
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+이러한 서류를 반드시 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.8794911503791809</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到在正选招生（정시모집）中是否会招收低收入机会均等类型的学生。因此，根据给定的信息无法确定是否会有针对低收入家庭学生的特殊招生计划。
+如果您需要了解这方面的详细信息，建议直接访问东国大学的官方网站 (https://ipsi.deu.ac.kr/main.do) 或者联系学校的入学管理办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.494172990322113</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 등급은 절사 처리됩니다. 즉, 2.5등급의 경우 소수점 셋째자리에서 절사하여 2등급으로 반영됩니다.
+반영방법에 따르면:
+- 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 석차등급 평균을 산출합니다.
+- 등급 평균 산출 시 소수점 셋째자리에서 절사 처리됩니다.
+따라서 2.5등급은 2등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.7812378406524658</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 나군 학생부종합(조기취업형계약학과전형) - 정원외의 경우, 충원 합격자는 다음과 같이 발표됩니다:
+1. 1차 충원 합격자 발표: 2024년 2월 14일 (수)
+2. 2차 충원 합격자 발표: 2024년 2월 15일 (목)
+따라서, 정시 충원 합격자는 최대 2차까지 발표가 있을 수 있습니다.
+주의사항:
+- 이는 특정 전형의 일정이며, 다른 전형의 경우 다를 수 있으므로 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다.
+- 모든 지원자는 합격자 발표일에 반드시 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.7681545615196228</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024년의 정시 모집요강을 바탕으로 답변드리겠습니다.
+e비즈니스학과는 상경대학 인문사회 계열에 속하며, 다군 수능(일반학생전형)에 해당합니다. 다군 수능(일반학생전형)의 경우, 수능 성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점
+영어 등급에 따른 점수는 4등급이면 115점입니다. 따라서, e비즈니스학과의 지원자가 수능 성적이 다음과 같다면:
+- 국어: 104 (표준점수)
+- 수학(미적분): 108 (표준점수)
+- 영어: 4등급 (115점)
+- 탐구: (상세 정보 없음, 가정하여 0점으로 계산)
+합계 점수는 다음과 같습니다:
+104 + 108 + 115 + 0 = 327
+다군 수능(일반학생전형)의 경우, 모집인원을 초과하는 동점자 처리 기준은 다음과 같습니다:
+- 1순위: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+- 2순위: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+- 3순위: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+이 경우, 지원자의 총 점수가 327점으로, 동점자가 발생할 경우 다음과 같은 순위를 갖게 됩니다:
+1. 수능 국어 + 수학 + 영어 + 탐구 합계점수
+2. 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수
+3. 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+따라서, 지원자의 성적이 4.6등급인 경우, 정시 전형으로 추가 합격 가능성은 있습니다만, 실제 동점자 처리 순위와 모집인원에 따라 결정됩니다.
+추가적으로, 수능 성적 외에도 학교생활기록부, 면접 등 다양한 평가 요소가 있으므로, 지원자의 전체적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.7496150732040405</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>5.3이라는 등급을 가지고 동의대학교 e비즈니스학과에 최초합격 가능성을 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위와 모집인원**: e비즈니스학과의 정확한 모집단위와 모집인원은 표에서 확인할 수 있습니다.
+2. **성적 평균 및 등급 분포**: 해당 학과의 성적 평균과 등급 분포를 알아야 합니다. 5.3이라는 등급이 평균보다 높다면 더 좋은 위치에 있을 것입니다.
+3. **전형요소와 비율**: e비즈니스학과의 전형요소와 그 비율을 확인해야 합니다. 예를 들어, 서류가 70%이고 면접이 30%라면, 성적 외에도 다른 요소들이 중요할 수 있습니다.
+4. **전년도 합격자 정보**: 이전 연도의 합격자들의 성적과 등급을 참조하면 도움이 될 것입니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 하지만 5.3이라는 등급은 상당히 높은 점수로, 일반적으로 좋은 성적이므로 최초합격 가능성은 있습니다. 그러나 확실한 답변을 위해서는 위의 추가 정보가 필요합니다.
+추천되는 방법:
+- 동의대학교 e비즈니스학과의 전년도 합격자 성적을 확인해보세요.
+- 해당 학과의 모집인원과 모집단위를 확인하세요.
+- 전형요소와 비율을 다시 한번 확인하세요.
+이러한 정보들을 종합적으로 고려하면 최초합격 가능성에 대한 좀 더 정확한 판단을 할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.720801830291748</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024学年主修变更信息**：根据提供的表格内容，eBiznesis学部已经更名为eBiznesis学系。这意味着你需要查看最新的录取标准和要求。
+2. **成绩和排名**：你提到的分数是 { 104 /  108 /  4등급 /  47 /  59 }，我们需要将其转换为标准化分数，并根据最新的录取标准进行评估。
+3. **其他因素**：除了学术成绩外，还需要考虑面试表现、个人陈述等因素。特别是对于eBiznesis学系这样的专业，面试的表现可能尤为重要。
+### 分析步骤：
+1. **将成绩转换为标准化分数**：
+   - 国语 (Korean)：104
+   - 数学 (Mathematics)：108
+   - 英语 (English)：4等（根据提供的表格，4等对应115分）
+   - 科目选择 (Science)：47
+   - 科目选择 (Science)：59
+2. **计算总分**：
+   根据最新的录取标准，eBiznesis学系的录取标准可能如下（假设与之前的类似）：
+   - 国语 25%
+   - 数学 25%
+   - 英语 25%
+   - 科目选择 (Science) 25%
+   计算总分：
+   \[
+   总分 = 104 \times 0.25 + 108 \times 0.25 + 115 \times 0.25 + 47 \times 0.25 + 59 \times 0.25
+   \]
+   \[
+   总分 = 26 + 27 + 28.75 + 11.75 + 14.75 = 108.5
+   \]
+3. **评估排名**：
+   - 根据最新的录取标准，你需要查看具体的排名要求。假设eBiznesis学系的预估分数线是前30名左右。
+### 结论：
+- 如果你的总分接近或超过预估分数线，并且面试表现良好，那么你有可能被预录取。
+- 但是，具体是否能够预录取还需要参考最新的录取标准和名额分配情况。建议查看学校官网发布的最新信息或者直接咨询招生办公室以获取准确的信息。
+因此，根据提供的成绩，如果你的排名在前30名左右，并且面试表现优秀，那么你有较大的可能性被eBiznesis学系预录取。但最终结果还需参考最新的录取标准和名额分配情况。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.5459928512573242</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 것입니다. 하지만 최종 합격 여부는 여러 요소가 결합되어 결정되므로 단순한 수능 점수만으로 판단하기 어렵습니다.
+간호학과의 입학사정은 다음과 같은 특징이 있습니다:
+1. **전형방법**: 주로 서류평가와 면접평가를 통해 합격자를 선발합니다.
+2. **서류평가 영역**:
+   - 공동체역량: 120점 중 평균 점수는 84점으로, 3.44의 성적이 이 부분에서 좋은 평가를 받을 수 있습니다.
+   - 학업역량: 240점 중 평균 점수는 168점으로, 3.44의 성적은 이 부분에서도 충분히 경쟁력을 가질 수 있습니다.
+   - 전공적합성: 240점 중 평균 점수는 168점으로, 학업역량과 유사한 범위입니다.
+3. **면접평가**: 면접에서는 지원동기와 학업계획, 문제해결능력 등을 평가합니다. 이 부분에서 자신의 열정과 계획을 잘 전달한다면 좋은 점수를 받을 수 있습니다.
+4. **추천서 및 자기소개서 등 추가 자료**: 이러한 서류들이 합격 결정에 큰 영향을 미칠 수 있으므로, 충분히 준비해야 합니다.
+따라서 3.44의 성적만으로는 확실한 결론을 내리기는 어렵습니다. 하지만 다음과 같은 절차를 통해 최선을 다하면 좋은 결과를 얻을 수 있습니다:
+1. **자기소개서 및 추천서 작성**: 진심어린 지원동기를 잘 담아내고, 학업계획과 전공적합성을 잘 설명해야 합니다.
+2. **면접 준비**: 면접에서 자신의 열정과 계획을 잘 전달하고, 문제해결능력을 보여줄 수 있도록 준비해야 합니다.
+결론적으로 3.44의 성적이 충분히 좋은 점수이므로, 서류와 면접 등 다른 평가 요소를 잘 준비한다면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7941256761550903</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집인원은 22명이며, 지원 인원이 145명으로 높은 경쟁률을 보이고 있습니다. 간호학과는 교직형 학과로, 입학사정관들이 서류와 면접 평가를 중점적으로 검토합니다.
+주요 평가 영역은 다음과 같습니다:
+1. **서류평가**:
+   - **공동체역량**: 최고 120점, 최저 84점
+   - **학업역량**: 최고 240점, 최저 168점
+   - **전공적합성**: 최고 240점, 최저 168점
+2. **면접평가**:
+   - 학업역량과 전공적합성에 대한 질문이 주요합니다.
+3. **수능 성적**:
+   - 수능 4개 영역의 표준 변환 점수가 중요하며, 최종 평균 점수가 높은 지원자들이 선호됩니다.
+주어진 정보만으로는 정확한 예측이 어렵지만, 수능 성적이 2.52인 경우 다음과 같은 요소들을 고려해야 합니다:
+- **수능 성적**: 2.52는 평균적인 수준입니다. 하지만 간호학과의 입시에서는 수능 점수가 중요한 역할을 하지 않기 때문에, 다른 평가 영역에서 높은 점수를 받는 것이 중요합니다.
+- **서류평가**: 공동체역량, 학업역량, 전공적합성 등에서 높은 점수를 받는 것이 필요합니다. 특히, 간호학과의 특성을 잘 이해하고, 관련 활동이나 경험을 잘 기재해야 합니다.
+- **면접평가**: 면접에서는 학업역량과 전공적합성에 대한 질문이 주로 제기되므로, 이에 대해 준비가 필요합니다.
+따라서, 수능 성적이 2.52인 경우에도 최종 합격 가능성은 있습니다만, 다른 평가 영역에서 높은 점수를 받는 것이 중요합니다. 특히 서류평가와 면접평가에서 우수한 성적을 얻어야 합니다.
+추가적으로, 동의대학교 입학사정관들이 요구하는 간호사로서의 기본 자질과 역량을 잘 보여줄 수 있는 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.6766778230667114</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 주로 수능 성적과 학생부 성적을 종합적으로 평가합니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보를 고려해야 합니다:
+1. **수능 성적**: 3.7의 평균 등급은 상당히 낮은 수준입니다. 간호학과는 보통 높은 수능 점수가 요구되므로, 이 정도 성적이 충분한 것은 아닙니다.
+2. **학생부 성적**: 학생부 성적도 중요합니다. 특히 과학 관련 과목의 성적이 좋게 나와야 합니다. 간호학과는 생명과학이나 생물 등 과학 관련 과목에서 높은 점수를 받았다면 이점이 유리할 수 있습니다.
+3. **추천서 및 특기사항**: 추천서나 특기사항 등을 잘 작성하면 합격 가능성에 도움이 될 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 평가를 받으면 합격 가능성이 높아질 수 있습니다.
+5. **전형별 특성**: 간호학과는 다양한 전형을 통해 지원자를 선발하므로, 자신이 어떤 전형에 지원할지 결정하는 것이 중요합니다. 예를 들어, '학생부종합'이나 '평생학습자전형' 등에서 학생부 성적을 중점적으로 평가받는 전형을 고려해볼 수 있습니다.
+따라서, 정확한 답변은 간호학과의 모집요강과 지원자의 전체적인 성적 및 특성에 따라 달라질 수 있습니다. 3.7의 성적이 낮기 때문에, 합격 가능성은 높지 않을 것으로 보입니다. 하지만 최선을 다해 준비하고, 전형별로 잘 맞춘다면 기회는 있을 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 관계부서에 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.731736421585083</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 교직 과정이 포함된 학과로 복수전공이나 취업형 계약학과가 아닌 일반적인 간호학과 입니다. 이와 관련하여 몇 가지 점을 고려해야 합니다:
+1. **모집인원 및 경쟁률**: 간호학과의 모집인원은 110명이며, 정시 모집에서는 매우 높은 경쟁률이 예상됩니다.
+2. **성적 기준**: 동의대학교는 수능 성적이 합격 요건 중 하나로 작용합니다. 하지만 간호학과는 특히 실기와 면접 등 실무 능력 평가도 중요하게 고려하기 때문에, 단순히 수능 점수만으로 합격 여부를 판단할 수 없습니다.
+3. **성적 평균**: 2024년 간호학과의 성적 평균은 다음과 같습니다:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수: 평균 2.58
+   - 영어 등급: 평균 3등급 (대략 107점)
+   - 수능 4개 영역 등급: 평균 3등급
+4. **성적 경쟁**: 2.58의 표준 변환 점수는 평균과 매우 유사합니다. 이 점수로는 상위권 합격은 어렵지만, 중하위권 합격 가능성은 있습니다.
+결론적으로, 2.58의 성적만으로 간호학과에 정시 전형으로 확실하게 합격하기는 어려울 것으로 보입니다. 하지만 다음과 같은 방법들을 고려해볼 수 있습니다:
+- **추가 지원**: 다른 모집단위나 전형(예: 특성화고 동일계, 성인학습자 등)을 추가로 지원하여 기회를 늘릴 수 있습니다.
+- **면접 및 실기 준비**: 간호학과는 실무 능력 평가도 중요하므로 면접 및 실기 준비에 충분히 시간을 할애해야 합니다.
+- **추천서 및 자기소개서 작성**: 추천서와 자기소개서를 잘 작성하여 학교생활이나 사회 활동에서의 경험과 능력을 강조할 수 있습니다.
+따라서, 단순히 성적만으로 판단하기보다는 전반적인 지원 자질을 고려해야 합니다. 추가 정보나 자세한 조언이 필요하시다면 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.6983038187026978</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看具体的录取信息和标准。根据您提供的数据表，没有直接提到游戏学科学位的具体录取分数线或标准。不过，我可以提供一些一般性的建议：
+1. 查看游戏学科学位的最低录取线：从表格中可以看到游戏学科学位的一些录取分数（如实考成绩、加权后的总分等），可以大致了解该专业的录取要求。
+2. 考虑您的预估分数：您提到自己是预编号7，这意味着您在等待最终结果。请根据自己的实际考试成绩来判断是否达到或接近该游戏学科学位的最低录取线。
+3. 关注补充录取信息：通常会有补充录取（充招）的机会，如果第一次没有被录取，可以关注是否有补录机会，并准备相关材料。
+4. 咨询学校招生办公室：如果您对具体分数和录取标准有疑问，可以直接联系东国大学的招生办公室获取更详细的信息。
+5. 考虑其他专业：如果游戏学科学位最终未能录取，也可以考虑申请其他感兴趣的专业或学位。
+建议您密切关注学校的官方通知，并根据自己的实际情况做出决定。如果有任何疑问，最好直接咨询学校招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.3885478973388672</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 이 점수가 실제 수능 성적을 반영하는지 확인해야 합니다. 동의대학교 게임공학과의 정시 모집요강을 살펴보면 다음과 같은 정보가 있습니다:
+1. **전형방법**: 주로 수능 성적이 핵심입니다.
+2. **모집인원 및 지원자 수**: 이는 매년 변동되므로, 최근 데이터를 확인해야 합니다.
+4.16이라는 점수로 추정되는 실제 점수를 가지고 정확한 예측을 하기는 어렵지만, 일반적으로 동의대학교 게임공학과의 경우 다음과 같은 특징이 있습니다:
+- **경쟁률**: 매우 높습니다.
+- **합격선**: 평균적으로 4.35 이상이 필요합니다.
+따라서 4.16이라는 점수로는 합격하기 어렵다고 볼 수 있습니다. 하지만 추가 지원을 위해서는 다음과 같은 전략을 고려해볼 수 있습니다:
+1. **2차 충원**: 최초합격자 발표 이후에 진행되므로, 이 기회를 활용할 수 있습니다.
+2. **다른 정시 모집단위**: 게임공학과 외 다른 학과로 지원하는 것도 방법입니다.
+추가적으로, 동의대학교 입학 홈페이지나 공식 안내서를 확인하여 최신 정보와 전형요강을 확인하시고, 필요하다면 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.6587674021720886</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 정시 모집에서는 학생부교과성적이 중요하게 반영됩니다. 하지만 수능 점수도 중요한 요소 중 하나입니다.
+주요 정보를 바탕으로 다음과 같은 답변을 드릴 수 있습니다:
+1. **수능 점수**: 경영정보학과의 경우, 정시 모집에서는 수능 점수가 학생부교과성적과 함께 고려됩니다. 하지만 수능 점수만으로는 충분하지 않습니다.
+2. **학생부교과성적**: 3.75라는 평균 등급은 좋은 성적이지만, 경영정보학과의 경우 보통 4.0 이상이 선호되곤 합니다. 따라서 단순히 3.75로는 최초등록자로 확정될 가능성은 낮습니다.
+3. **전형요소**: 정시 모집에서는 학생부교과성적, 수능 점수, 그리고 면접 성적이 종합적으로 평가됩니다. 따라서 3.75의 등급만으로는 충분하지 않습니다.
+4. **경쟁률**: 경영정보학과의 경우 경쟁률이 높기 때문에, 단순히 수능 점수로는 최초등록자로 선발될 가능성은 낮습니다.
+따라서 3.75의 평균 등급으로는 경영정보학과의 최초등록자로 선발되는 것은 어렵다고 볼 수 있습니다. 하지만 학생부교과성적 외에도 면접 성적이 좋다면, 또는 다른 특별한 이유가 있다면 기회를 얻을 수도 있을 것입니다.
+추가적으로 지원자의 전반적인 성적 경향과 특징을 고려하여 입학처에 문의하거나, 학생부교과성적 외에도 어떤 요소들이 중요하게 평가되는지 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.7276962995529175</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据您提供的信息，我们没有直接提到“经营信息学”（经管信息学）的具体招生要求和名额情况。不过，我们可以参考一般性的入学标准来判断。
+1. **了解招生政策**：通常情况下，大学会设定一定的录取分数线或最低成绩要求。如果您的成绩为4.2，在大多数情况下应该可以满足一般的本科录取条件。
+2. **查看具体专业信息**：
+   - 请查找经营信息学（经管信息学）的具体招生名额和录取标准。
+   - 查看该专业的往年录取情况，了解其录取分数线。
+3. **参考其他相关数据**：根据您提供的表格内容，可以了解到一些关于各专业招生的基本信息。例如，“加试”、“减试”的成绩分布等。
+4. **咨询学校**：
+   - 如果您不确定具体的录取标准和名额，请直接联系东国大学的招生办公室或访问其官方网站获取最新、最准确的信息。
+   - 也可以查看学校的官方公告，了解最新的招生政策和要求。
+5. **综合判断**：如果经营信息学（经管信息学）的专业没有特别严格的录取条件，并且您的成绩4.2在往年录取范围内，则您有可能成为该专业的正试录取者。但具体能否被录取还需根据学校最终的招生计划和名额来决定。
+建议直接访问东国大学官方网站或联系学校的招生办公室获取最准确的信息，以确保您的申请顺利进行。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.3330786824226379</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年的招生计划和名额。
+2. 经营信息学部的录取标准，特别是对于一般学生类型的入学要求。
+3. 您提供的成绩（5.33）是否符合该专业的最低录取分数线。
+根据您提供的数据，经营信息学部在多军普通学生类型中的录取标准如下：
+- 国语 + 数学 + 选修课 (2个) 标准转换分数总和 { 平均 / 标准差 }：450.78 / 5.90
+- 英语等级分：无加权
+您的成绩是5.33，这个数字看起来像是一个标准化的分数。但是，我们需要知道具体的评分标准来确定它是否达到了450.78的标准转换分数总和。
+此外，我们还需要查看2024年经营信息学部的具体招生计划人数以及实际申请人数，以了解竞争情况。
+建议您访问东国大学官方网站（http://ipsi.deu.ac.kr）获取最新的招生简章、具体录取分数线等详细信息。或者直接联系学校的招生办公室进行确认。
+如果您能提供更具体的标准化分数或等级分，我可以帮助进一步分析您的录取可能性。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.5785581469535828</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 정시 일반학생전형으로 지원하려면 다음과 같은 절차와 요건을 고려해야 합니다:
+1. **성적 평균**: 동의대학교는 대체로 수능 성적이 높은 학생들을 선호합니다. 3.33 정도의 성적은 중간적인 수준이며, 바이오응용공학부와 같은 과정에서는 보통 4.0 이상의 성적이 요구되곤 합니다.
+2. **모집인원 및 경쟁률**: 바이오응용공학부는 모집 인원이 많지 않으므로 경쟁률이 높을 수 있습니다. 따라서 3.33 정도의 성적만으로 최초등록자로 선발될 확률은 낮습니다.
+3. **학생부 종합 평가**: 동의대학교는 학생부 종합평가를 중요하게 고려합니다. 과목별 석차, 진로선택과목 성적 등이 반영되므로, 좋은 학생부 성적이 필요합니다.
+4. **면접 및 추가요소**: 일부 전형에서는 면접이나 서류심사가 포함될 수 있으므로, 이 부분에서도 경쟁력을 갖추어야 합니다.
+5. **기타 요건**: 특정 전공에 대한 특별한 요구사항이 있을 수도 있습니다(예: 실험실 실습 능력, 관련 프로젝트 경험 등).
+결론적으로 3.33 정도의 성적만으로 바이오응용공학부 최초등록자로 선발될 가능성은 낮습니다. 더 높은 수능 성적과 좋은 학생부 성적을 갖추는 것이 중요합니다. 또한, 동의대학교 홈페이지나 입학처에 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.
+더 자세한 내용이나 추가 지원 전략이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시거나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.6891677975654602</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하시려면, 몇 가지 요소를 고려해야 합니다:
+1. **성적**: 방사선학과는 일반학생전형으로 모집되며, 성적이 중요한 요인입니다. 현재 제시된 성적 4.4 등급은 좋은 기초가 되지만, 정확한 합격 가능성을 판단하기 위해서는 해당 학과의 최저합격선을 확인해야 합니다.
+2. **최저합격선**: 동의대학교 방사선학과의 최저합격선을 확인하셔야 합니다. 이 정보는 입학처 웹사이트나 모집요강에서 확인할 수 있습니다. 일반적으로, 합격선은 4.5 이상이 될 가능성이 높습니다.
+3. **전형요소**: 방사선학과는 주로 수능 성적을 기반으로 모집되지만, 일부 학과에서는 서류평가나 면접 등 다른 요소도 고려할 수 있습니다. 따라서 전형요소를 꼼꼼히 확인해 보세요.
+4. **경쟁률**: 방사선학과의 경쟁률을 파악하여 성적에 따른 입학 가능성을 판단하는 것이 좋습니다. 경쟁률이 높다면, 조금 더 높은 점수나 다른 전형요소를 활용해야 할 수도 있습니다.
+5. **추천서 등 추가 서류**: 일부 학과에서는 추천서나 자기소개서 등의 추가 서류가 필요할 수 있으므로, 해당 정보도 확인해 보세요.
+결론적으로, 현재의 4.4 등급은 방사선학과에 지원하기에는 약간 부족할 가능성이 있습니다. 하지만 최저합격선이 어느 정도인지 확인하고, 다른 전형요소를 활용하여 입학 가능성을 높이는 것이 좋습니다.
+추가적으로, 동의대학교 입학처 웹사이트나 모집요강을 참조하시거나, 학교 관계자에게 직접 문의하시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6685284376144409</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2.66이라는 경쟁률을 방사선학과에서 볼 때, 이는 상대적으로 낮은 수준입니다. 방사선학과의 정원 외 모집인원이 27명이고 지원 인원이 4명으로 보았을 때, 경쟁률은 약 6.75:1 정도 됩니다.
+경쟁률 2.66은 다음과 같은 점들을 고려할 때 상대적으로 낮습니다:
+- 정원 외 모집인원이 많아 지원자의 기회가 더 큽니다.
+- 경쟁률이 낮다는 것은 합격 가능성도 높아 보입니다.
+그러나, 최종 결정은 여러 요소에 따라 달라질 수 있으므로 다음과 같은 점들을 확인해보는 것이 좋습니다:
+1. 지원자의 개인 성적과 평가 결과
+2. 동점자 처리 기준 및 추가 평가 요인
+3. 모집단위별 특성화와 전공 적합성
+따라서, 2.66의 경쟁률은 낮지만, 최종 합격 여부는 개인적인 성적과 기타 평가 요소에 따라 결정될 수 있으므로 안심하고 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7225456237792969</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌학생전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 농어촌학생전형은 일반적으로 많은 지원자가 몰리기 때문에 매우 치열한 경쟁률을 보입니다.
+2. **성적 기준**: 대부분의 대학에서 농어촌학생전형은 비교적 낮은 성적도 고려하지만, 3.66이라는 점수는 상당히 낮은 수치입니다. 일반적으로 합격자들의 평균 성적이 4.0 이상인 경우가 많습니다.
+3. **모집인원**: 각 모집단위의 정원이 제한적이라면, 낮은 성적을 가진 지원자는 경쟁에서 밀릴 가능성이 큽니다.
+4. **기타 평가 요소**: 농어촌학생전형에서는 학생부교과성적 외에도 다양한 평가 요인이 고려됩니다. 따라서 단순히 성적이 낮다고 해서 반드시 불합격하는 것은 아닙니다만, 확실한 합격 가능성은 낮습니다.
+추천 사항:
+1. **다른 전형 지원**: 현재의 성적을 고려해보시고 다른 전형(일반학생전형 등)에 지원해 보는 것이 좋습니다.
+2. **재수 시도**: 성적이 조금 더 높아질 수 있도록 노력하거나, 재수를 계획하는 것도 방법입니다.
+3. **면접 준비**: 만약 면접이 포함되어 있다면, 면접 준비를 철저히 해보세요.
+결론적으로 3.66이라는 성적로는 경쟁력이 부족한 편이며, 다른 전형을 고려하거나 성적이 더 높아질 수 있도록 노력하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.8168111443519592</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 예비후보 순위에 해당하는 것으로 보입니다. 예비후보 순위는 실제 합격 가능성을 정확히 예측하기 어렵습니다. 하지만 몇 가지 점을 고려해볼 수 있습니다:
+1. 예비후보 순위가 높다는 것은 모집인원이 부족할 경우 해당 순위까지 충원될 가능성이 있다는 의미입니다.
+2. 실제 결원 발생 시 예비후보 중에서 선발되므로, 최소한의 가능성은 존재합니다.
+3. 학교 측에서는 일반적으로 모든 예비후보를 대상으로 선발을 진행하려고 노력하지만, 특정 모집단위나 학과에서는 결원이 발생할 경우 더 높은 순위까지 확장될 수 있습니다.
+4. 지원자의 개인 성적, 경쟁률 등 다양한 요인들이 결정에 영향을 미칠 수 있으므로, 단순히 순위만으로 판단하기는 어렵습니다.
+결론적으로 100%의 가능성은 없지만, 어느 정도의 기회가 있다는 점을 기억하는 것이 좋겠습니다. 학교 입학 홈페이지나 관계자에게 직접 문의해보시거나, 지원자의 개인 성적과 경쟁률 등을 고려하여 더 정확한 판단을 내리실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7188383340835571</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 제공드리겠습니다. 하지만 정확한 평균 성적을 예측하기는 어렵습니다. 일반적으로 다음과 같은 요소들을 고려해야 합니다:
+1. **최근 몇 년간의 입학성적 분석**: 이전 연도의 최종 합격자들의 수능 성적을 참고하면 안정적인 합격 가능성을 파악할 수 있습니다.
+2. **모집인원과 지원 인원**: 모집인원이 많고 지원 인원이 적으면 경쟁률이 낮아지므로 더 낮은 점수로도 합격할 수 있습니다.
+3. **가산점 영향**: 법경찰행정학부는 사회적 가치가 높아 가산점을 받을 가능성이 크므로 이에 대한 예상 점수를 고려해야 합니다.
+4. **학교별 평균 성적**: 동의대학교 전체적으로 볼 때, 법경찰행정학부의 평균 수능 성적이 어느 정도인지 파악하는 것이 중요합니다.
+2023년도 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 참고하면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 평균 105점, 표준 편차 3.5
+- **영어 등급**: 평균 4등급, 표준 편차 0.5
+- **수능 4개 영역(가산점 포함) 표준 변환 점수 합**: 평균 107점, 표준 편차 3.8
+이 정보를 바탕으로 추정하면:
+- **안정권**: 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 105점 이상, 영어 등급 4등급 이상, 수능 4개 영역(가산점 포함) 표준 변환 점수 합 107점 이상을 받으면 안정적인 합격 가능성이 있습니다.
+- **문 닫고 들어갈 수 있는 점수**: 경쟁률이 높다면, 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 108점 이상, 영어 등급 4등급 이상, 수능 4개 영역(가산점 포함) 표준 변환 점수 합 110점 이상을 받으면 문 닫고 들어갈 가능성이 있습니다.
+최종적으로는 동의대학교 입학처 홈페이지나 전화로 확인하시는 것이 가장 정확할 것입니다. 또한, 수능 성적 예측 서비스를 이용해 보시거나, 학원에서 제공하는 분석 자료도 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7026993036270142</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 동의대학교에서 사용하는 등급 체계를 기준으로 볼 때, 이 점수가 합격선을 넘는지 여부는 여러 요소에 따라 결정됩니다.
+1. **학과별 합격기준 확인**: 보육가정상담학과의 정확한 합격기준 등급을 확인해야 합니다. 각 학과마다 다른 합격 기준이 있을 수 있습니다.
+2. **전형방법 및 점수 반영 방식**: 동의대학교는 다양한 전형 방법을 사용하며, 일부 학과에서는 수능 성적뿐만 아니라 학생부 등급도 반영합니다.
+일반적으로 동의대학교의 경우, 정시 모집에서는 주로 수능 성적이 핵심적인 역할을 합니다. 하지만 보육가정상담학과와 같은 특정 학과는 학생부 등급이나 다른 요소를 고려하기도 합니다.
+따라서 5.33이라는 점수가 합격선을 넘는지 확인하려면:
+1. **보육가정상담학과의 정확한 합격기준 등급**을 확인해야 합니다.
+2. 해당 학과의 **전형방법 및 점수 반영 방식**을 파악해야 합니다.
+만약 학과별 합격 기준이 5.33 이상이라면, 이 점수로는 합격할 수 있습니다. 하지만 학과 별로 다른 경우가 있으므로, 공식적인 합격기준을 확인하는 것이 가장 정확한 답변을 제공합니다.
+추가적으로, 동의대학교 입학 홈페이지나 해당 학과의 담당자에게 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.6828925013542175</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격 예비 12위라는 점에서 합격 가능성은 매우 낮습니다. 일반적으로:
+1. 동의대학교는 3차 충원까지 여러 차례 진행하며, 많은 지원자가 이 과정을 거칩니다.
+2. 예비 순위가 높을수록 합격 가능성은 줄어듭니다. 예비 12위는 상당히 낮은 위치입니다.
+3. 특히 보육가정상담과와 같은 인기 학과에서는 많은 지원자가 경쟁합니다.
+4. 이전 차례에서 이미 충원된 학생들이 많을 가능성이 높습니다.
+5. 3차 충원에서도 합격자 발표는 홈페이지를 통해 이루어지므로, 최종 결과를 확인해야 합니다.
+하지만 정확한 확률은 알 수 없습니다. 최종 합격 여부는 입학관리팀의 판단에 따라 결정되며, 이전 차례에서 이미 많은 학생들이 선발되었을 가능성이 높습니다. 따라서 3차 충원에서도 합격 가능성은 매우 낮다고 볼 수 있습니다.
+최종 결과를 확인하기 위해서는 동의대학교 입학관리 홈페이지를 통해 합격자 발표를 확인하시고, 필요하다면 입학관리팀에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.6741690635681152</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과의 모집인원과 지원자들의 경쟁률을 고려할 때, 이 점수로 합격 가능성은 있습니다만 다음과 같은 요소들을 고려해야 합니다:
+1. **유아교육학과의 모집인원**: 해당 학과의 정원이 얼마나 되는지 확인해야 합니다.
+2. **경쟁률**: 유아교육학과의 경쟁률을 파악하여, 이 점수로 충분히 높은 순위를 차지할 수 있는지 판단해야 합니다.
+3. **전형방법**: 해당 학과가 수능 성적만으로 선발하는지, 아니면 다른 요소들도 고려하는지 확인해야 합니다.
+4. **학생부 및 면접 등 추가 평가**: 일부 학과에서는 학생부와 면접 등의 추가 평가를 통해 지원자를 판단하기도 하므로, 이 부분을 잘 준비해야 합니다.
+5. **대학별 정원 외 모집**: 일부 대학은 정원 외로 추가 선발하는 경우가 있으므로, 이를 고려해볼 만합니다.
+4.75라는 점수는 상당히 높은 수준이므로, 이 점수로 유아교육학과에 합격할 가능성이 있습니다만, 최종 결정을 내리기 위해서는 해당 대학의 모집요강과 경쟁률 등을 꼼꼼히 분석해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7909792065620422</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현 아동학과)에 지원하실 경우, 환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+아동학과의 모집인원 및 경쟁률을 고려하면 다음과 같은 점들을 주목해야 합니다:
+1. **경쟁률**: 아동학과의 경쟁률은 매우 높습니다. 2023년도 경쟁률이 약 4:1 정도였으므로, 2024년도에도 비슷하거나 더 높을 가능성이 있습니다.
+2. **모집인원**: 아동학과의 모집인원은 제한적이므로, 많은 지원자가 동일한 학과를 목표로 하게 됩니다.
+3. **성적 기준**: 환산등급 4.16은 좋은 성적입니다만, 이는 단순히 등급으로 평가되는 것이 아니라 수능 과목별 표준점수와 탐구 영역의 성적이 함께 반영됩니다. 따라서 국어, 수학, 영어, 탐구 영역에서 높은 점수를 받았다면 더 유리할 것입니다.
+4. **서류평가**: 서류평가에서는 학교생활기록부와 면접 등이 포함되므로, 이 부분에서도 좋은 성적을 받아야 합니다.
+5. **면접 성적**: 면접에서도 학업역량과 전공적합성 등을 평가받으므로, 준비를 철저히 해야 합니다.
+6. **동점자 처리기준**: 동점자가 발생할 경우, 면접 성적이 높은 순으로 선발되므로, 면접에서도 좋은 성적을 받는 것이 중요합니다.
+따라서 환산등급 4.16만 가지고 합격을 보장하기는 어렵습니다. 하지만 이 정도의 성적과 함께 좋은 서류평가와 면접 성적이 있다면, 충분히 합격 가능성은 있습니다. 
+추후 동일한 질문이 있으시다면, 수능 표준점수나 탐구 영역 등급 등을 추가로 알려주시면 더욱 정확한 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7259925603866577</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 소프트웨어융합학과는 정시 모집이 이루어지지 않습니다. 주어진 정보에 따르면, 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)에서만 모집되고 있습니다.
+따라서 정시로 들어갈 수 있는 방법은 없습니다.
+하지만, 만약 다른 전형을 통해 입학하고자 한다면 다음과 같은 정보를 참고하실 수 있습니다:
+- **나군 학생부종합(조기취업형계약학과전형)**: 이 전형에서는 소프트웨어융합학과가 모집되고 있으며, 평균적으로 국어, 수학, 영어 등급이 높은 지원자가 선호됩니다. 특히 수학 영역에서의 성적이 중요하게 반영되므로, 수학(미적분 또는 기하)을 응시한 지원자의 경우 수학 점수가 높은 것이 유리합니다.
+- **평균 등급**: 정확한 평균 등급은 모집단위와 전형 방식에 따라 다르지만, 일반적으로 4등급 이상의 성적이 필요할 것으로 예상됩니다. 특히 수학 영역에서 3등급 이상을 받는 것이 중요합니다.
+- **전형 요소**: 서류평가(학생부)와 면접이 각각 60%와 40%로 반영되므로, 학생부의 질과 면접 성적이 중요한 역할을 합니다. 
+따라서 정시로는 들어갈 수 없지만, 나군 학생부종합(조기취업형계약학과전형)을 통해 지원하실 경우 평균 4등급 이상의 성적을 받으시고, 특히 수학 영역에서 좋은 점수를 얻으시면 유리할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5560858249664307</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특 내용의 중요성**:
+   - **면접 점수**: 소프트웨어융합과는 면접 점수가 매우 중요한 요소입니다. 면접에서는 지원자의 학업역량, 전공적합성 등을 평가받습니다.
+   - **세특 내용 (서류평가 영역)**: 서류평가에서도 공동체역량, 학업역량, 전공적합성을 평가합니다. 특히 공동체역량에서는 학교폭력 기재 사실이 확인될 경우 감점 또는 불합격 처리될 수 있으므로 주의해야 합니다.
+2. **서류 준비**:
+   - **제출서류**: 제출서류는 고교 졸업(예정)자와 검정고시 출신자, 외국고교 졸업(예정)자의 경우 모두 동일합니다.
+     - **고교 졸업(예정)자**: 학생부 온라인 제공 동의자가 아닌 경우 학교생활기록부 1부를 제출해야 합니다.
+     - **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류(선택 가능)를 제출합니다.
+     - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류(선택 가능)를 제출합니다. (외국어로 작성된 서류는 원본과 공증받은 한국어 번역본을 함께 제출해야 합니다.)
+3. **추천 준비사항**:
+   - **세특 내용**: 학교생활기록부에 기재된 내용을 바탕으로, 지원자의 노력과 성취를 구체적으로 서술하세요. 특히 공동체 역량 부분에서는 협업능력, 배려심 등을 강조해야 합니다.
+   - **면접 준비**: 면접에서는 지원동기와 학업계획, 학업역량 및 전공적합성에 대한 내용을 잘 준비해 두세요.
+이러한 정보를 바탕으로 소프트웨어융합과의 입학을 위한 서류와 면접 준비를 철저히 하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.514661431312561</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자 표를 확인해보겠습니다.
+- **소프트웨어공학부** 모집단위의 경우, 표준 변환 점수 합 평균은 **317.87**, 표준 편차는 **7.35**입니다.
+- 4.08이라는 성적이 표준 변환 점수로 환산되면 다음과 같습니다:
+  - 4.08은 표준점수로 환산하면 대략 **4등급** 정도 됩니다.
+이제 이 점수를 평균과 비교해보겠습니다:
+- **평균**: 317.87
+- **표준 편차**: 7.35
+4.08의 표준 변환 점수가 평균보다 약간 높은 수치로 보입니다.
+따라서, 정시 성적이 4.08인 경우 소프트웨어공학부 최초합격자로 가능할 것으로 예상됩니다. 하지만 확실한 것은 합격 여부를 확인하기 위해서는 해당 모집단위의 최종 등록자 명단을 참조하거나, 입학관리팀에 문의하는 것이 가장 정확합니다.
+추가적으로, 동의대학교에서는 수능 성적뿐만 아니라 전형요소 반영비율도 고려하므로, 다른 평가 요인들도 함께 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8519253730773926</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준을 보면, 다군 수능(일반학생전형)의 동점자 처리 기준이 다음과 같습니다:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+소프트웨어융합학과는 정시 모집군에 해당되므로, 이 기준을 따르게 됩니다.
+평균 5등급으로 들어오려면:
+1. **국어, 수학, 영어** 등급이 모두 5등급 이상이어야 합니다.
+2. **한국사, 사회(역사/도덕 포함), 과학교과** 중에서도 평균을 내는 데에 도움이 되는 과목들은 최대한 고득점으로 유지해야 합니다.
+따라서, 국어, 수학, 영어 등급이 모두 5등급 이상이고, 나머지 과목들에서 좋은 성적을 받으면 평균 5등급으로 들어올 가능성은 있습니다. 하지만 이는 최선의 경우이며, 실제 동점자 처리에서는 여러 요소가 고려되기 때문에 확실한 보장은 아닙니다.
+추가적으로, 소프트웨어융합학과는 정시 모집군에 속하므로, 전형요소 반영비율이 100% 수능 성적을 기준으로 하기 때문에 수능 점수와 등급이 매우 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6237725615501404</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학할 가능성을 판단하기 위해서는 몇 가지 요인들을 고려해야 합니다.
+1. **모집 인원 및 지원자 수**: 표에서 보시듯이 신소재공학과는 56명 모집하고, 지원자는 81명입니다. 이는 경쟁률이 약 1.45:1로 낮지 않지만 여전히 높은 편입니다.
+2. **성적 평균 및 분산**: 표에서 제공하는 데이터를 보면 신소재공학과의 국어+수학+탐구(가산점 포함) 표준 변환 점수 평균은 286.97이고, 표준 편차는 15.35입니다. 이는 성적이 상대적으로 높은 편이지만, 표준 편차도 크므로 성적 분포가 넓다는 것을 의미합니다.
+3. **성적 등급 평균**: 영어 등급의 평균이 4.33이고, 수능 4개 영역(가산점 포함) 표준 변환 점수 합의 평균은 378.15입니다. 이는 성적이 상대적으로 높은 편이라는 것을 나타냅니다.
+4. **경쟁률**: 현재 경쟁률이 0.87:1로 낮아서, 성적만으로도 충분히 합격 가능성이 있습니다.
+따라서, 4.28의 성적을 가지고 신소재공학과에 진학할 수 있는 가능성은 높습니다. 하지만 최종 결정에는 면접 결과나 기타 평가 요인들이 포함될 수 있으므로, 정확한 확률을 알기 위해서는 동의대학교 입학관리팀으로부터 자세한 정보를 얻어보시는 것이 좋겠습니다.
+추가적으로, 동의대학교 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 더 많은 정보와 지원 절차를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7215889692306519</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능(일반학생전형)으로 지원할 때 자기소개서는 필수적으로 제출해야 하는 항목이 아닙니다. 수능 일반학생전형은 주로 수능 점수를 기준으로 학생들을 선발하므로, 자기소개서가 필요하지 않습니다.
+그러나 일부 모집단위에서는 자기소개서를 선택적으로 요구할 수도 있으니, 해당 모집단위의 공지사항을 확인해보시는 것이 좋습니다. 만약 자기소개서가 요구된다면, 지원자의 학업 동기와 장래 계획 등을 명확하게 서술하는 것이 중요합니다.
+자세한 내용은 동의대학교 입학 홈페이지나 전형요강을 참조하시거나, 입학관리팀에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.5643506646156311</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집 인원과 지원자 수**: 각 모집단위별로 남아있는 모집 인원이 얼마나 되는지, 그리고 이미 지원한 다른 학생들의 점수가 어떻게 분포되어 있는지를 고려해야 합니다.
+2. **전형 요소**: 일부 전형에서는 수능 점수 외에도 학생부, 면접 등 다양한 요소가 반영됩니다. 따라서 수능 점수만으로는 결정되지 않을 수 있습니다.
+3. **경쟁률**: 남은 모집 인원과 지원자 수의 비율이 중요합니다. 경쟁률이 높다면 낮은 점수가 합격하기 어렵습니다.
+4. **예비후보 선발 방식**: 일부 경우, 예비후보 순위에 따라 추가로 합격자를 선발할 수 있습니다. 이때는 개인의 순위가 중요합니다.
+5. **기타 요인**: 학교별 정책이나 특성화 프로그램 등 다양한 요인이 작용할 수 있습니다.
+따라서, 가장 정확한 답변을 듣기 위해서는 동의대학교 입학처에 직접 문의하거나, 해당 대학의 공식 홈페이지나 전형 안내 자료를 확인하는 것이 좋습니다. 또한, 추가 모집 정보와 지원 가능성을 확인하기 위해 온라인으로 지원 가능한지 확인해보시는 것도 도움이 될 것입니다.
+추가로, 수능 점수 외에도 학생부 성적, 면접 등 다른 전형 요소를 준비하는 것이 좋습니다. 이렇게 하면 더 많은 기회를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8218403458595276</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)는 정시 모집요강을 통해 다음과 같은 등급으로 지원 가능합니다:
+- **학생부교과 전형**: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목 중 최대 8과목의 성적을 반영합니다. 이는 보통 고등학교 졸업예정자에게는 3등급 이상, 고교 졸업자는 4등급 이상이 필요할 것으로 예상됩니다.
+- **학생부종합 전형**: 다양한 요소를 종합적으로 평가하므로 정확한 등급은 제공하기 어렵지만, 일반적으로 학생부 성적과 면접 등의 평균적인 점수는 3등급 이상이 필요할 것으로 예상됩니다.
+따라서 신소재공학과에 지원을 고려하고 있다면, 국어, 수학, 영어 등 주요 과목에서 3등급 이상의 성적을 유지하는 것이 좋습니다. 하지만 최종 합격 가능성은 개인의 전반적인 성적과 면접 등의 평가 요소를 종합적으로 고려해야 합니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7039875388145447</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수 447점을 받으셨다면, 작년에 비슷한 점수를 받았던 신소재공학과 같은 모집단위에서는 최종 합격이 가능할 수 있습니다. 하지만 여러 요인들이 합격 여부를 결정하기 때문에 확실하게 예측하기는 어렵습니다.
+주요 고려사항은 다음과 같습니다:
+1. **모집 인원**: 작년에 비해 모집 인원이 늘어났거나 줄었을 가능성이 있습니다.
+2. **경쟁률**: 작년과 비교했을 때 경쟁률이 어떻게 변했는지 중요합니다. 경쟁률이 높아졌다면 합격 가능성은 낮아질 수 있습니다.
+3. **기타 평가 요소**: 서류평가, 면접 등 기타 평가 요소의 결과도 중요한 역할을 합니다.
+4. **모집 단위 특성**: 각 모집단위별로 요구되는 성적과 전공 적합성이 다를 수 있으므로, 해당 모집단위의 특성을 고려해야 합니다.
+따라서, 작년에 비슷한 점수를 받았던 신소재공학과 같은 모집단위에서 최종 합격이 가능하다는 것은 가능하지만, 확실하게 예측하기 위해서는 동의대학교 입학관리 홈페이지나 해당 대학 관계자에게 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.714898943901062</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이 4.1~4.2 정도로 예상되더라도, 동의대학교에서 신소재공학과에 지원할 때는 다음과 같은 요인들을 고려해야 합니다:
+1. **성적 기준**: 
+   - 신소재공학과는 일반적으로 높은 성적을 요구합니다.
+   - 4.3등급이 4.1~4.2로 예상되더라도, 동의대학교의 수능 성적 반영 비율에 따라 실제 점수가 중요합니다.
+2. **수능 성적 반영**:
+   - 신소재공학과는 수능 성적이 중요한 역할을 합니다.
+   - 국어, 수학, 영어 등 주요 과목의 성적을 잘 받아야 합니다.
+3. **전형방법**:
+   - 동의대학교는 일반적으로 수능 성적과 학생부 성적을 종합적으로 평가합니다.
+   - 4.1~4.2등급으로 예상되더라도, 수능 성적이 높아야 합니다.
+4. **예비 후보 순위**:
+   - 모집단위별로 미등록이나 포기 등으로 인해 결원이 발생할 경우, 예비후보 순위에 따라 충원될 가능성이 있습니다.
+   - 따라서 4.1~4.2등급이라도 최선을 다해야 합니다.
+5. **추천**:
+   - 수능 성적을 높이는 공부를 꾸준히 해야 합니다.
+   - 학생부 성적도 유지하고, 활동 기록을 잘 관리해야 합니다.
+   - 모집단위별로 최대한 많은 대학을 지원하여 보완할 수 있습니다.
+결론적으로 4.1~4.2등급으로 예상되더라도, 수능 성적이 높아야 하고 꾸준히 공부를 해야 합니다. 또한 다양한 대학을 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7901880741119385</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최소 합격 기준을 확인해보겠습니다.
+인공지능학과는 공과대학에 속하며, 해당 학과의 수능 최종합격 점수를 살펴볼 수 있습니다. 표에서 인공지능학과의 최종합격 점수를 찾아보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 415.80
+이는 평균 점수가 415.80이라는 것을 의미합니다. 그러나 이는 최소합격 기준을 정확히 나타내지는 않습니다. 실제 최소합격 점수는 경쟁률과 모집인원, 지원자들의 성적 분포 등에 따라 변동될 수 있습니다.
+따라서, 2024년 동의대학교 인공지능학과 수능(일반학생전형)으로 가고 싶으시다면, 최소 415.80 이상의 표준변환점수를 목표로 하여 준비하시는 것이 좋을 것 같습니다.
+추가적으로, 수험생들의 성적 분포와 경쟁률 등을 고려하여 더 정확한 합격 예상 점수를 파악하려면, 동의대학교 입학처 웹사이트나 전형요강을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.7684248685836792</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 정확한 수능 점수가 아닌 것 같습니다. "5.27"이란 숫자를 확인해보면, 일반적으로 수능 점수는 국어, 수학(미적분/기하), 영어 등급을 합산하여 표준점수로 변환된 값과 탐구 과목의 표준점수를 더한 값을 의미합니다.
+만약 "5.27"이 수능 4개 영역(국어, 수학, 영어, 탐구) 중 하나의 점수라면, 이 점수가 충분히 높아야 합니다. 동의대학교의 경우, 일반적으로 인문사회과학대학과 상경대학 모집단위에서는 국어, 수학, 영어 등급을 반영하며, 일부 학과는 탐구 과목도 포함하여 점수를 산출합니다.
+다만, 정확한 추합 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. **모집단위**: 어떤 모집단위에 지원했는지.
+2. **수능 성적 구조**: 국어, 수학(미적분/기하), 영어 등급, 탐구 과목의 표준점수 등.
+3. **가산점**: 해당 모집단위에서 가산점을 받을 수 있는 경우가 있는지.
+만약 "5.27"이 수능 4개 영역 중 하나의 점수라면, 이 점수가 상당히 높은 점수입니다. 그러나 동의대학교의 경우, 일부 모집단위에서는 수능 성적을 매우 중요하게 평가하므로, 다른 과목들의 성적과 함께 고려해야 합니다.
+추합 가능성 판단을 위해서는 위에 언급한 정보를 제공해 주시거나, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 동의대학교의 2024년 정시 모집요강과 성적 산출 방법 등을 확인하시면 더 정확한 판단이 가능할 것입니다.
+더 자세한 정보를 원하신다면, [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.8694586753845215</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 수준입니다. 동의대학교 소프트웨어공학부의 경우, 일반적으로 다음과 같은 경쟁률을 보여주고 있습니다:
+1. **전형별 경쟁률**: 
+   - 실기/실적(경기실적우수자전형): 40:1 정도
+   - 학생부교과(농어촌학생전형): 35:1 정도
+   - 학생부종합(성인학습자(정원내)전형): 28:1 정도
+2. **성적 기준**:
+   - 실기/실적(경기실적우수자전형): 수능 성적이 높은 경우 유리
+   - 학생부교과(농어촌학생전형): 교과 성적이 높은 경우 유리
+   - 학생부종합(성인학습자(정원내)전형): 학생부 종합 평가에서 우수한 결과를 보여줘야 함
+3. **4.2의 의미**:
+   - 4.2는 매우 높은 점수로, 대부분의 모집단위에서는 좋은 성적을 보여줍니다.
+   - 특히 실기/실적(경기실적우수자전형)과 학생부교과(농어촌학생전형)에서는 이 점수가 유리할 것입니다.
+4. **추천 전형**:
+   - **실기/실적(경기실적우수자전형)**: 이 전형은 수능 성적이 높을 경우 매우 유리합니다.
+   - **학생부교과(농어촌학생전형)**: 교과 성적이 높다면 이 전형도 고려해볼 만합니다.
+5. **추가 조언**:
+   - **면접 준비**: 실기/실적(경기실적우수자전형)에서는 면접이 필수로 진행되므로, 면접 준비를 철저히 해야 합니다.
+   - **추천서 및 자기소개서**: 학생부종합(성인학습자(정원내)전형)에서는 추천서와 자기소개서가 중요하므로 잘 작성해야 합니다.
+결론적으로, 4.2의 성적은 소프트웨어공학부에 지원할 때 매우 유리한 위치에 있습니다. 특히 실기/실적(경기실적우수자전형)과 학생부교과(농어촌학생전형)에서는 이 점수가 큰 장점이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6877042055130005</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 화학환경공학부(화학공학, 환경공학, 응용화학)의 정시 일반학생전형에 대해 판단해보겠습니다.
+1. **성적 산출 방법 확인**:
+   - 성적 산출 예시 표에서 3.92는 국어, 수학(미적분), 영어, 과탐(물리Ⅰ), 과탐(화학Ⅰ)의 점수를 반영한 것으로 보입니다.
+   - 이 점수는 학생부교과 성적이 우수한 경우에 해당합니다.
+2. **화학환경공학부 정시 일반학생전형 기준**:
+   - 화학환경공학부(화학공학, 환경공학, 응용화학)의 정시 일반학생전형은 학생부교과 성적을 중점적으로 평가합니다.
+   - 이 전형에서는 국어, 수학, 영어, 과학 등 주요 교과 성적이 중요하게 반영됩니다.
+3. **성적 기준**:
+   - 화학환경공학부의 정시 일반학생전형은 학생부교과 성적이 높아야 합니다.
+   - 3.92라는 점수는 상당히 좋은 성적입니다. 이 정도 성적을 가진 지원자는 대부분 해당 전형에 충분한 경쟁력을 갖추고 있습니다.
+4. **결론**:
+   - 3.92의 성적이 화학환경공학부(화학공학, 환경공학, 응용화학)의 정시 일반학생전형에 충분히 가능합니다.
+   - 그러나 최종 합격 여부는 전형별로 다른 요소들(면접 등)을 포함하여 결정되므로, 지원자는 해당 전형의 전체 평가 기준을 참고하시고 준비를 철저히 해야 합니다.
+따라서 3.92라는 성적은 화학환경공학부 정시 일반학생전형에 충분한 경쟁력을 갖추고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.8079212307929993</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 대체로 좋은 성적이지만, 동의대학교 화학환경공학부에 지원하기 위해서는 수능 성적도 고려해야 합니다.
+1. **수능 반영방법**: 동의대학교의 경우, 수능 반영 방식은 다음과 같습니다.
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+2. **가산점**: 화학환경공학부는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 주므로, 이 점을 고려해야 합니다.
+3. **성적 산출 예시**: 
+   - 예를 들어 국어: 95 (표준점수), 수학(미적분): 85 (표준점수), 영어: 4등급, 탐구: 70 (표준점수)라고 가정하면,
+     - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점 = 95 + 85 + 115 + 70 + (85 * 0.1) = 364.5
+4. **모집인원과 경쟁률**: 화학환경공학부의 모집인원과 지원 인원, 그리고 경쟁률을 고려해야 합니다.
+따라서, 4.25라는 성적만으로는 확실한 합격을 보장할 수 없습니다. 수능 성적이 좋은 점수를 얻었으므로, 추가적으로 수능 성적을 잘 활용하여 최대한 높은 점수를 받는 것이 중요합니다.
+**추천 사항:**
+1. **수능 성적 확인**: 실제 수능 성적을 확인하고, 위의 방법으로 성적을 산출해보세요.
+2. **모집인원과 경쟁률**: 해당 학과의 모집인원과 지원 인원, 그리고 경쟁률을 확인하세요.
+3. **추가 준비**: 수능 공부를 추가로 하여 더 높은 점수를 얻는 것이 좋습니다.
+만약 실제 수능 성적이 좋은 결과를 낸다면, 동의대학교 화학환경공학부에 합격할 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.756961464881897</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 영화학과의 경우 입학사정관 심사와 면접 등 다양한 요소가 고려되므로 단순히 수능 점수로 합격 여부를 판단하기는 어렵습니다.
+1. **수능 성적**: 4.2라는 점수는 상당히 높은 점수입니다. 이 정도의 점수는 대부분의 모집단위에서 좋은 평가를 받을 수 있습니다.
+2. **입학사정관 심사**: 영화학과에서는 학생부, 면접 등 다양한 요소를 종합적으로 평가합니다. 따라서 성적 외에도 창의성, 표현력, 경험 등을 고려받으실 가능성이 큽니다.
+3. **면접**: 면접에서도 자신의 열정과 목표, 그리고 영화에 대한 이해도 등을 잘 전달해야 합니다. 준비를 철저히 하시고 자신감 있게 대응하시면 좋습니다.
+4. **추천서 및 자기소개서**: 추천서와 자기소개서는 학생부보다 더 중요한 역할을 할 수 있습니다. 영화에 대한 열정과 꿈, 그리고 이를 실현하기 위한 계획 등을 잘 담아내시기 바랍니다.
+5. **경쟁률**: 현재의 경쟁률을 확인하여 보시고, 이 경쟁률에서 4.2라는 점수는 좋은 평가를 받을 수 있을 것입니다.
+결론적으로, 단순히 수능 성적만으로 합격 여부를 판단하기보다는 입학사정관 심사와 면접 등 다양한 요소들을 종합적으로 고려해야 합니다. 충분한 준비를 하시고 자신감 있게 대응하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7005077004432678</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译：
+面试流程如下：
+1. 候考室入场 → 
+2. 身份确认 → 
+3. 移动到考场前 → 
+4. 进入考场 → 
+5. 发表支持动机及学业计划 → 
+6. 讨论与学业能力、专业适应性相关的一般问题并回答质询 → 
+7. 其他质询（提交文件的真实性等）→ 
+8. 离场 → 
+请参考以上流程进行准备。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.437015175819397</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7907489976286888</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7861368489265442</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7601379430294037</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7884429232776164</v>
+      <c r="D305" t="n">
+        <v>0.7790079298615455</v>
       </c>
     </row>
   </sheetData>
